--- a/ConsoleAppFSharp/Output.xlsx
+++ b/ConsoleAppFSharp/Output.xlsx
@@ -114,16 +114,16 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13.5"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,18 +317,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,376 +832,376 @@
   </cols>
   <sheetData>
     <row ht="18.5">
+      <c s="2" t="s">
+        <v>0</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row ht="16.45">
       <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
+        <v>7</v>
+      </c>
+      <c s="1" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>22</v>
+      </c>
+      <c s="1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>1</v>
+      </c>
+      <c s="5" t="s">
+        <v>21</v>
+      </c>
+      <c s="3">
+        <v>500000</v>
+      </c>
+      <c s="3">
+        <v>350000</v>
+      </c>
+      <c s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>2</v>
+      </c>
+      <c s="5" t="s">
+        <v>2</v>
+      </c>
+      <c s="3">
+        <v>400000</v>
+      </c>
+      <c s="3">
+        <v>280000</v>
+      </c>
+      <c s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>3</v>
+      </c>
+      <c s="5" t="s">
+        <v>9</v>
+      </c>
+      <c s="3">
+        <v>600000</v>
+      </c>
+      <c s="3">
+        <v>420000</v>
+      </c>
+      <c s="3">
+        <v>180000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>4</v>
+      </c>
+      <c s="5" t="s">
+        <v>16</v>
+      </c>
+      <c s="3">
+        <v>700000</v>
+      </c>
+      <c s="3">
+        <v>490000</v>
+      </c>
+      <c s="3">
+        <v>210000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>5</v>
+      </c>
+      <c s="5" t="s">
+        <v>23</v>
+      </c>
+      <c s="3">
+        <v>650000</v>
+      </c>
+      <c s="3">
+        <v>455000</v>
+      </c>
+      <c s="3">
+        <v>195000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>6</v>
+      </c>
+      <c s="5" t="s">
+        <v>4</v>
+      </c>
+      <c s="3">
+        <v>750000</v>
+      </c>
+      <c s="3">
+        <v>525000</v>
+      </c>
+      <c s="3">
+        <v>225000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>7</v>
+      </c>
+      <c s="5" t="s">
+        <v>11</v>
+      </c>
+      <c s="3">
+        <v>300000</v>
+      </c>
+      <c s="3">
+        <v>210000</v>
+      </c>
+      <c s="3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>8</v>
+      </c>
+      <c s="5" t="s">
+        <v>17</v>
+      </c>
+      <c s="3">
+        <v>550000</v>
+      </c>
+      <c s="3">
+        <v>385000</v>
+      </c>
+      <c s="3">
+        <v>165000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>9</v>
+      </c>
+      <c s="5" t="s">
+        <v>24</v>
+      </c>
+      <c s="3">
+        <v>800000</v>
+      </c>
+      <c s="3">
+        <v>560000</v>
+      </c>
+      <c s="3">
+        <v>240000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>10</v>
+      </c>
+      <c s="5" t="s">
+        <v>10</v>
+      </c>
+      <c s="3">
+        <v>350000</v>
+      </c>
+      <c s="3">
+        <v>245000</v>
+      </c>
+      <c s="3">
+        <v>105000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>11</v>
+      </c>
+      <c s="5" t="s">
+        <v>15</v>
+      </c>
+      <c s="3">
+        <v>700000</v>
+      </c>
+      <c s="3">
+        <v>490000</v>
+      </c>
+      <c s="3">
+        <v>210000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>12</v>
+      </c>
+      <c s="5" t="s">
+        <v>25</v>
+      </c>
+      <c s="3">
+        <v>600000</v>
+      </c>
+      <c s="3">
+        <v>420000</v>
+      </c>
+      <c s="3">
+        <v>180000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>13</v>
+      </c>
+      <c s="5" t="s">
+        <v>5</v>
+      </c>
+      <c s="3">
+        <v>750000</v>
+      </c>
+      <c s="3">
+        <v>525000</v>
+      </c>
+      <c s="3">
+        <v>225000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>14</v>
+      </c>
+      <c s="5" t="s">
+        <v>12</v>
+      </c>
+      <c s="3">
+        <v>400000</v>
+      </c>
+      <c s="3">
+        <v>280000</v>
+      </c>
+      <c s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>15</v>
+      </c>
+      <c s="5" t="s">
+        <v>18</v>
+      </c>
+      <c s="3">
+        <v>450000</v>
+      </c>
+      <c s="3">
+        <v>315000</v>
+      </c>
+      <c s="3">
+        <v>135000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>16</v>
+      </c>
+      <c s="5" t="s">
+        <v>26</v>
+      </c>
+      <c s="3">
+        <v>500000</v>
+      </c>
+      <c s="3">
+        <v>350000</v>
+      </c>
+      <c s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>17</v>
+      </c>
+      <c s="5" t="s">
+        <v>6</v>
+      </c>
+      <c s="3">
+        <v>600000</v>
+      </c>
+      <c s="3">
+        <v>420000</v>
+      </c>
+      <c s="3">
+        <v>180000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>18</v>
+      </c>
+      <c s="5" t="s">
+        <v>13</v>
+      </c>
+      <c s="3">
+        <v>550000</v>
+      </c>
+      <c s="3">
+        <v>385000</v>
+      </c>
+      <c s="3">
+        <v>165000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>19</v>
+      </c>
+      <c s="5" t="s">
+        <v>19</v>
+      </c>
+      <c s="3">
+        <v>700000</v>
+      </c>
+      <c s="3">
+        <v>490000</v>
+      </c>
+      <c s="3">
+        <v>210000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>3</v>
+      </c>
+      <c s="3">
+        <v>300000</v>
+      </c>
+      <c s="3">
+        <v>210000</v>
+      </c>
+      <c s="3">
+        <v>90000</v>
+      </c>
     </row>
     <row ht="16.45">
-      <c s="2" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" t="s">
-        <v>20</v>
-      </c>
-      <c s="2" t="s">
-        <v>22</v>
-      </c>
-      <c s="2" t="s">
-        <v>1</v>
-      </c>
-      <c s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>1</v>
-      </c>
       <c s="6" t="s">
-        <v>21</v>
-      </c>
-      <c s="3">
-        <v>500000</v>
-      </c>
-      <c s="3">
-        <v>350000</v>
-      </c>
-      <c s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c s="6" t="s">
-        <v>2</v>
-      </c>
-      <c s="3">
-        <v>400000</v>
-      </c>
-      <c s="3">
-        <v>280000</v>
-      </c>
-      <c s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>3</v>
-      </c>
-      <c s="6" t="s">
-        <v>9</v>
-      </c>
-      <c s="3">
-        <v>600000</v>
-      </c>
-      <c s="3">
-        <v>420000</v>
-      </c>
-      <c s="3">
-        <v>180000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>4</v>
-      </c>
-      <c s="6" t="s">
-        <v>16</v>
-      </c>
-      <c s="3">
-        <v>700000</v>
-      </c>
-      <c s="3">
-        <v>490000</v>
-      </c>
-      <c s="3">
-        <v>210000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>5</v>
-      </c>
-      <c s="6" t="s">
-        <v>23</v>
-      </c>
-      <c s="3">
-        <v>650000</v>
-      </c>
-      <c s="3">
-        <v>455000</v>
-      </c>
-      <c s="3">
-        <v>195000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>6</v>
-      </c>
-      <c s="6" t="s">
-        <v>4</v>
-      </c>
-      <c s="3">
-        <v>750000</v>
-      </c>
-      <c s="3">
-        <v>525000</v>
-      </c>
-      <c s="3">
-        <v>225000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>7</v>
-      </c>
-      <c s="6" t="s">
-        <v>11</v>
-      </c>
-      <c s="3">
-        <v>300000</v>
-      </c>
-      <c s="3">
-        <v>210000</v>
-      </c>
-      <c s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>8</v>
-      </c>
-      <c s="6" t="s">
-        <v>17</v>
-      </c>
-      <c s="3">
-        <v>550000</v>
-      </c>
-      <c s="3">
-        <v>385000</v>
-      </c>
-      <c s="3">
-        <v>165000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>9</v>
-      </c>
-      <c s="6" t="s">
-        <v>24</v>
-      </c>
-      <c s="3">
-        <v>800000</v>
-      </c>
-      <c s="3">
-        <v>560000</v>
-      </c>
-      <c s="3">
-        <v>240000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>10</v>
-      </c>
-      <c s="6" t="s">
-        <v>10</v>
-      </c>
-      <c s="3">
-        <v>350000</v>
-      </c>
-      <c s="3">
-        <v>245000</v>
-      </c>
-      <c s="3">
-        <v>105000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>11</v>
-      </c>
-      <c s="6" t="s">
-        <v>15</v>
-      </c>
-      <c s="3">
-        <v>700000</v>
-      </c>
-      <c s="3">
-        <v>490000</v>
-      </c>
-      <c s="3">
-        <v>210000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>12</v>
-      </c>
-      <c s="6" t="s">
-        <v>25</v>
-      </c>
-      <c s="3">
-        <v>600000</v>
-      </c>
-      <c s="3">
-        <v>420000</v>
-      </c>
-      <c s="3">
-        <v>180000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>13</v>
-      </c>
-      <c s="6" t="s">
-        <v>5</v>
-      </c>
-      <c s="3">
-        <v>750000</v>
-      </c>
-      <c s="3">
-        <v>525000</v>
-      </c>
-      <c s="3">
-        <v>225000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>14</v>
-      </c>
-      <c s="6" t="s">
-        <v>12</v>
-      </c>
-      <c s="3">
-        <v>400000</v>
-      </c>
-      <c s="3">
-        <v>280000</v>
-      </c>
-      <c s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>15</v>
-      </c>
-      <c s="6" t="s">
-        <v>18</v>
-      </c>
-      <c s="3">
-        <v>450000</v>
-      </c>
-      <c s="3">
-        <v>315000</v>
-      </c>
-      <c s="3">
-        <v>135000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>16</v>
-      </c>
-      <c s="6" t="s">
-        <v>26</v>
-      </c>
-      <c s="3">
-        <v>500000</v>
-      </c>
-      <c s="3">
-        <v>350000</v>
-      </c>
-      <c s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>17</v>
-      </c>
-      <c s="6" t="s">
-        <v>6</v>
-      </c>
-      <c s="3">
-        <v>600000</v>
-      </c>
-      <c s="3">
-        <v>420000</v>
-      </c>
-      <c s="3">
-        <v>180000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>18</v>
-      </c>
-      <c s="6" t="s">
-        <v>13</v>
-      </c>
-      <c s="3">
-        <v>550000</v>
-      </c>
-      <c s="3">
-        <v>385000</v>
-      </c>
-      <c s="3">
-        <v>165000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>19</v>
-      </c>
-      <c s="6" t="s">
-        <v>19</v>
-      </c>
-      <c s="3">
-        <v>700000</v>
-      </c>
-      <c s="3">
-        <v>490000</v>
-      </c>
-      <c s="3">
-        <v>210000</v>
-      </c>
-    </row>
-    <row>
-      <c s="6">
-        <v>20</v>
-      </c>
-      <c s="6" t="s">
-        <v>3</v>
-      </c>
-      <c s="3">
-        <v>300000</v>
-      </c>
-      <c s="3">
-        <v>210000</v>
-      </c>
-      <c s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row ht="16.45">
-      <c s="5" t="s">
-        <v>14</v>
-      </c>
-      <c s="5" t="s">
         <v>14</v>
       </c>
       <c s="4">

--- a/ConsoleAppFSharp/Output.xlsx
+++ b/ConsoleAppFSharp/Output.xlsx
@@ -22,19 +22,22 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>NAL-02</t>
-  </si>
-  <si>
-    <t>NAL-20</t>
-  </si>
-  <si>
-    <t>NAL-06</t>
-  </si>
-  <si>
-    <t>NAL-13</t>
-  </si>
-  <si>
-    <t>NAL-17</t>
+    <t>ID-18</t>
+  </si>
+  <si>
+    <t>ID-04</t>
+  </si>
+  <si>
+    <t>ID-08</t>
+  </si>
+  <si>
+    <t>ID-11</t>
+  </si>
+  <si>
+    <t>ID-15</t>
+  </si>
+  <si>
+    <t>ID-19</t>
   </si>
   <si>
     <t>Id</t>
@@ -43,58 +46,55 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>NAL-03</t>
-  </si>
-  <si>
-    <t>NAL-10</t>
-  </si>
-  <si>
-    <t>NAL-07</t>
-  </si>
-  <si>
-    <t>NAL-14</t>
-  </si>
-  <si>
-    <t>NAL-18</t>
+    <t>ID-01</t>
+  </si>
+  <si>
+    <t>ID-05</t>
+  </si>
+  <si>
+    <t>ID-12</t>
+  </si>
+  <si>
+    <t>ID-16</t>
+  </si>
+  <si>
+    <t>ID-09</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>NAL-11</t>
-  </si>
-  <si>
-    <t>NAL-04</t>
-  </si>
-  <si>
-    <t>NAL-08</t>
-  </si>
-  <si>
-    <t>NAL-15</t>
-  </si>
-  <si>
-    <t>NAL-19</t>
+    <t>ID-02</t>
+  </si>
+  <si>
+    <t>ID-06</t>
+  </si>
+  <si>
+    <t>ID-13</t>
+  </si>
+  <si>
+    <t>ID-17</t>
+  </si>
+  <si>
+    <t>ID-20</t>
   </si>
   <si>
     <t>Employee Id</t>
   </si>
   <si>
-    <t>NAL-01</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
-    <t>NAL-05</t>
-  </si>
-  <si>
-    <t>NAL-09</t>
-  </si>
-  <si>
-    <t>NAL-12</t>
-  </si>
-  <si>
-    <t>NAL-16</t>
+    <t>ID-03</t>
+  </si>
+  <si>
+    <t>ID-07</t>
+  </si>
+  <si>
+    <t>ID-10</t>
+  </si>
+  <si>
+    <t>ID-14</t>
   </si>
 </sst>
 </file>
@@ -842,10 +842,10 @@
     </row>
     <row ht="16.45">
       <c s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" t="s">
         <v>22</v>
@@ -854,15 +854,270 @@
         <v>1</v>
       </c>
       <c s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>1</v>
+      </c>
+      <c s="5" t="s">
+        <v>10</v>
+      </c>
+      <c s="3">
+        <v>500000</v>
+      </c>
+      <c s="3">
+        <v>350000</v>
+      </c>
+      <c s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>2</v>
+      </c>
+      <c s="5" t="s">
+        <v>16</v>
+      </c>
+      <c s="3">
+        <v>400000</v>
+      </c>
+      <c s="3">
+        <v>280000</v>
+      </c>
+      <c s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>3</v>
+      </c>
+      <c s="5" t="s">
+        <v>23</v>
+      </c>
+      <c s="3">
+        <v>600000</v>
+      </c>
+      <c s="3">
+        <v>420000</v>
+      </c>
+      <c s="3">
+        <v>180000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>4</v>
+      </c>
+      <c s="5" t="s">
+        <v>3</v>
+      </c>
+      <c s="3">
+        <v>700000</v>
+      </c>
+      <c s="3">
+        <v>490000</v>
+      </c>
+      <c s="3">
+        <v>210000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>5</v>
+      </c>
+      <c s="5" t="s">
+        <v>11</v>
+      </c>
+      <c s="3">
+        <v>650000</v>
+      </c>
+      <c s="3">
+        <v>455000</v>
+      </c>
+      <c s="3">
+        <v>195000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>6</v>
+      </c>
+      <c s="5" t="s">
+        <v>17</v>
+      </c>
+      <c s="3">
+        <v>750000</v>
+      </c>
+      <c s="3">
+        <v>525000</v>
+      </c>
+      <c s="3">
+        <v>225000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>7</v>
+      </c>
+      <c s="5" t="s">
+        <v>24</v>
+      </c>
+      <c s="3">
+        <v>300000</v>
+      </c>
+      <c s="3">
+        <v>210000</v>
+      </c>
+      <c s="3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
         <v>8</v>
       </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>1</v>
-      </c>
-      <c s="5" t="s">
-        <v>21</v>
+      <c s="5" t="s">
+        <v>4</v>
+      </c>
+      <c s="3">
+        <v>550000</v>
+      </c>
+      <c s="3">
+        <v>385000</v>
+      </c>
+      <c s="3">
+        <v>165000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>9</v>
+      </c>
+      <c s="5" t="s">
+        <v>14</v>
+      </c>
+      <c s="3">
+        <v>800000</v>
+      </c>
+      <c s="3">
+        <v>560000</v>
+      </c>
+      <c s="3">
+        <v>240000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>10</v>
+      </c>
+      <c s="5" t="s">
+        <v>25</v>
+      </c>
+      <c s="3">
+        <v>350000</v>
+      </c>
+      <c s="3">
+        <v>245000</v>
+      </c>
+      <c s="3">
+        <v>105000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>11</v>
+      </c>
+      <c s="5" t="s">
+        <v>5</v>
+      </c>
+      <c s="3">
+        <v>700000</v>
+      </c>
+      <c s="3">
+        <v>490000</v>
+      </c>
+      <c s="3">
+        <v>210000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>12</v>
+      </c>
+      <c s="5" t="s">
+        <v>12</v>
+      </c>
+      <c s="3">
+        <v>600000</v>
+      </c>
+      <c s="3">
+        <v>420000</v>
+      </c>
+      <c s="3">
+        <v>180000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>13</v>
+      </c>
+      <c s="5" t="s">
+        <v>18</v>
+      </c>
+      <c s="3">
+        <v>750000</v>
+      </c>
+      <c s="3">
+        <v>525000</v>
+      </c>
+      <c s="3">
+        <v>225000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>14</v>
+      </c>
+      <c s="5" t="s">
+        <v>26</v>
+      </c>
+      <c s="3">
+        <v>400000</v>
+      </c>
+      <c s="3">
+        <v>280000</v>
+      </c>
+      <c s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>15</v>
+      </c>
+      <c s="5" t="s">
+        <v>6</v>
+      </c>
+      <c s="3">
+        <v>450000</v>
+      </c>
+      <c s="3">
+        <v>315000</v>
+      </c>
+      <c s="3">
+        <v>135000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>16</v>
+      </c>
+      <c s="5" t="s">
+        <v>13</v>
       </c>
       <c s="3">
         <v>500000</v>
@@ -876,44 +1131,44 @@
     </row>
     <row>
       <c s="5">
+        <v>17</v>
+      </c>
+      <c s="5" t="s">
+        <v>19</v>
+      </c>
+      <c s="3">
+        <v>600000</v>
+      </c>
+      <c s="3">
+        <v>420000</v>
+      </c>
+      <c s="3">
+        <v>180000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>18</v>
+      </c>
+      <c s="5" t="s">
         <v>2</v>
       </c>
-      <c s="5" t="s">
-        <v>2</v>
-      </c>
-      <c s="3">
-        <v>400000</v>
-      </c>
-      <c s="3">
-        <v>280000</v>
-      </c>
-      <c s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>3</v>
-      </c>
-      <c s="5" t="s">
-        <v>9</v>
-      </c>
-      <c s="3">
-        <v>600000</v>
-      </c>
-      <c s="3">
-        <v>420000</v>
-      </c>
-      <c s="3">
-        <v>180000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>4</v>
-      </c>
-      <c s="5" t="s">
-        <v>16</v>
+      <c s="3">
+        <v>550000</v>
+      </c>
+      <c s="3">
+        <v>385000</v>
+      </c>
+      <c s="3">
+        <v>165000</v>
+      </c>
+    </row>
+    <row>
+      <c s="5">
+        <v>19</v>
+      </c>
+      <c s="5" t="s">
+        <v>7</v>
       </c>
       <c s="3">
         <v>700000</v>
@@ -927,265 +1182,10 @@
     </row>
     <row>
       <c s="5">
-        <v>5</v>
-      </c>
-      <c s="5" t="s">
-        <v>23</v>
-      </c>
-      <c s="3">
-        <v>650000</v>
-      </c>
-      <c s="3">
-        <v>455000</v>
-      </c>
-      <c s="3">
-        <v>195000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>6</v>
-      </c>
-      <c s="5" t="s">
-        <v>4</v>
-      </c>
-      <c s="3">
-        <v>750000</v>
-      </c>
-      <c s="3">
-        <v>525000</v>
-      </c>
-      <c s="3">
-        <v>225000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>7</v>
-      </c>
-      <c s="5" t="s">
-        <v>11</v>
-      </c>
-      <c s="3">
-        <v>300000</v>
-      </c>
-      <c s="3">
-        <v>210000</v>
-      </c>
-      <c s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>8</v>
-      </c>
-      <c s="5" t="s">
-        <v>17</v>
-      </c>
-      <c s="3">
-        <v>550000</v>
-      </c>
-      <c s="3">
-        <v>385000</v>
-      </c>
-      <c s="3">
-        <v>165000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>9</v>
-      </c>
-      <c s="5" t="s">
-        <v>24</v>
-      </c>
-      <c s="3">
-        <v>800000</v>
-      </c>
-      <c s="3">
-        <v>560000</v>
-      </c>
-      <c s="3">
-        <v>240000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>10</v>
-      </c>
-      <c s="5" t="s">
-        <v>10</v>
-      </c>
-      <c s="3">
-        <v>350000</v>
-      </c>
-      <c s="3">
-        <v>245000</v>
-      </c>
-      <c s="3">
-        <v>105000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>11</v>
-      </c>
-      <c s="5" t="s">
-        <v>15</v>
-      </c>
-      <c s="3">
-        <v>700000</v>
-      </c>
-      <c s="3">
-        <v>490000</v>
-      </c>
-      <c s="3">
-        <v>210000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>12</v>
-      </c>
-      <c s="5" t="s">
-        <v>25</v>
-      </c>
-      <c s="3">
-        <v>600000</v>
-      </c>
-      <c s="3">
-        <v>420000</v>
-      </c>
-      <c s="3">
-        <v>180000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>13</v>
-      </c>
-      <c s="5" t="s">
-        <v>5</v>
-      </c>
-      <c s="3">
-        <v>750000</v>
-      </c>
-      <c s="3">
-        <v>525000</v>
-      </c>
-      <c s="3">
-        <v>225000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>14</v>
-      </c>
-      <c s="5" t="s">
-        <v>12</v>
-      </c>
-      <c s="3">
-        <v>400000</v>
-      </c>
-      <c s="3">
-        <v>280000</v>
-      </c>
-      <c s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>15</v>
-      </c>
-      <c s="5" t="s">
-        <v>18</v>
-      </c>
-      <c s="3">
-        <v>450000</v>
-      </c>
-      <c s="3">
-        <v>315000</v>
-      </c>
-      <c s="3">
-        <v>135000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>16</v>
-      </c>
-      <c s="5" t="s">
-        <v>26</v>
-      </c>
-      <c s="3">
-        <v>500000</v>
-      </c>
-      <c s="3">
-        <v>350000</v>
-      </c>
-      <c s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>17</v>
-      </c>
-      <c s="5" t="s">
-        <v>6</v>
-      </c>
-      <c s="3">
-        <v>600000</v>
-      </c>
-      <c s="3">
-        <v>420000</v>
-      </c>
-      <c s="3">
-        <v>180000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>18</v>
-      </c>
-      <c s="5" t="s">
-        <v>13</v>
-      </c>
-      <c s="3">
-        <v>550000</v>
-      </c>
-      <c s="3">
-        <v>385000</v>
-      </c>
-      <c s="3">
-        <v>165000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
-        <v>19</v>
-      </c>
-      <c s="5" t="s">
-        <v>19</v>
-      </c>
-      <c s="3">
-        <v>700000</v>
-      </c>
-      <c s="3">
-        <v>490000</v>
-      </c>
-      <c s="3">
-        <v>210000</v>
-      </c>
-    </row>
-    <row>
-      <c s="5">
         <v>20</v>
       </c>
       <c s="5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c s="3">
         <v>300000</v>
@@ -1199,10 +1199,10 @@
     </row>
     <row ht="16.45">
       <c s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="4">
         <f t="shared" si="0" ref="C23:E23">SUM(C3:C22)</f>

--- a/ConsoleAppFSharp/Output.xlsx
+++ b/ConsoleAppFSharp/Output.xlsx
@@ -503,8 +503,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>565012</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>549459</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>166370</xdr:rowOff>
     </xdr:to>
